--- a/results.xlsx
+++ b/results.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iyerk\Documents\University of Utah Spring 2019\Advanced Algorithms\AA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E26FD9C-3D0B-4D16-8399-B38339805600}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A012C16-B1BE-467B-A1A4-7C3FF9666BE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="0" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{798EE51A-1633-4BFC-9984-9E0EF89E2BC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{798EE51A-1633-4BFC-9984-9E0EF89E2BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Synthetic Data" sheetId="1" r:id="rId1"/>
     <sheet name="Shuttle" sheetId="2" r:id="rId2"/>
-    <sheet name="Iris" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Iris" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
   <si>
     <t xml:space="preserve">Number  of outliers </t>
   </si>
@@ -453,7 +454,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,10 +768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA8E6F0-457A-4827-852F-95C7525C3CB4}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,6 +1247,120 @@
         <v>19</v>
       </c>
     </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="E17">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="F17">
+        <v>1E-4</v>
+      </c>
+      <c r="G17">
+        <v>100000000000000</v>
+      </c>
+      <c r="H17">
+        <v>0.85</v>
+      </c>
+      <c r="I17">
+        <v>500</v>
+      </c>
+      <c r="J17">
+        <v>21439.919999999998</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0.70579999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.70579999999999998</v>
+      </c>
+      <c r="F18">
+        <v>1E-4</v>
+      </c>
+      <c r="G18">
+        <v>100000000000000</v>
+      </c>
+      <c r="H18">
+        <v>0.85</v>
+      </c>
+      <c r="I18">
+        <v>800</v>
+      </c>
+      <c r="J18">
+        <v>33301.97</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="E19">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="F19">
+        <v>1E-4</v>
+      </c>
+      <c r="G19">
+        <v>100000000000000</v>
+      </c>
+      <c r="H19">
+        <v>0.85</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="J19">
+        <v>62320.36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1253,6 +1368,367 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D5E27E-F7FF-435F-A071-361A890CE760}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="F2">
+        <v>1E-4</v>
+      </c>
+      <c r="G2">
+        <v>100000000000000</v>
+      </c>
+      <c r="H2">
+        <v>0.85</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+      <c r="J2">
+        <v>50726.33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="E3">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="F3">
+        <v>1E-4</v>
+      </c>
+      <c r="G3">
+        <v>100000000000000</v>
+      </c>
+      <c r="H3">
+        <v>0.85</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3">
+        <v>70218.559999999998</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="E4">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="F4">
+        <v>1E-4</v>
+      </c>
+      <c r="G4">
+        <v>100000000000000</v>
+      </c>
+      <c r="H4">
+        <v>0.85</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>37199.660000000003</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>0.70579999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.70579999999999998</v>
+      </c>
+      <c r="F5">
+        <v>1E-4</v>
+      </c>
+      <c r="G5">
+        <v>100000000000000</v>
+      </c>
+      <c r="H5">
+        <v>0.85</v>
+      </c>
+      <c r="I5">
+        <v>800</v>
+      </c>
+      <c r="J5">
+        <v>33301.97</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.47049999999999997</v>
+      </c>
+      <c r="F6">
+        <v>1E-4</v>
+      </c>
+      <c r="G6">
+        <v>100000000000000</v>
+      </c>
+      <c r="H6">
+        <v>0.85</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="J6">
+        <v>62320.36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>0.18909999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.18909999999999999</v>
+      </c>
+      <c r="F7">
+        <v>1E-4</v>
+      </c>
+      <c r="G7">
+        <v>100000000000000</v>
+      </c>
+      <c r="H7">
+        <v>0.85</v>
+      </c>
+      <c r="I7">
+        <v>500</v>
+      </c>
+      <c r="J7">
+        <v>33198.28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>0.3513</v>
+      </c>
+      <c r="E8">
+        <v>0.3513</v>
+      </c>
+      <c r="F8">
+        <v>1E-4</v>
+      </c>
+      <c r="G8">
+        <v>100000000000000</v>
+      </c>
+      <c r="H8">
+        <v>0.85</v>
+      </c>
+      <c r="I8">
+        <v>300</v>
+      </c>
+      <c r="J8">
+        <v>19595.09</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>0.2432</v>
+      </c>
+      <c r="E9">
+        <v>0.2432</v>
+      </c>
+      <c r="F9">
+        <v>1E-4</v>
+      </c>
+      <c r="G9">
+        <v>100000000000000</v>
+      </c>
+      <c r="H9">
+        <v>0.85</v>
+      </c>
+      <c r="I9">
+        <v>500</v>
+      </c>
+      <c r="J9">
+        <v>31923.18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L14">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C03AE39-26AE-4FC5-B631-424CA54B676C}">
   <dimension ref="A1:H1"/>
   <sheetViews>
